--- a/biology/Botanique/Ansonica/Ansonica.xlsx
+++ b/biology/Botanique/Ansonica/Ansonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ansonica, ou inzolia, est un cépage italien de raisins blanc.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle provient du sud de l'Italie. Elle est très cultivé sur l’île d'Elbe.
 En Sicile, il est classé recommandé en province d'Agrigente, de Palerme, et de Trapani.
@@ -548,7 +562,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aranéeux, vert clair.
 Jeunes feuilles glabres, jaunâtres.
@@ -580,7 +596,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque: 30 jours après le chasselas.
 </t>
@@ -611,7 +629,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grandes et les baies sont de taille grosse. La grappe est tronconique, compacte et avec 2 ailerons. Le cépage est de bonne vigueur et d'une fertilité bonne mais irrégulière.
 </t>
@@ -642,7 +662,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ansonica est connu sous les noms de amsonica, ansolia, ansolica, ansoliku, ansora, ansoria, anzonaka, anzonica, anzulu, arba solika, erba insolika, inselida,iInsolia, insolia di Palermo, inzolia, inzolia parchitana, nsolia, nsuolia, nzolia bianca, nzolia di Lipari, nzolia di Palermo, soria, zolia bianca.
 </t>
